--- a/docs/Modèle-audit-SEO.xlsx
+++ b/docs/Modèle-audit-SEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayeb\Documents\Apprentissage\P4 lachouetteagence\origin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayeb\Documents\Apprentissage\P4 La chouette Agence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30BB1EA-503D-47D3-AADF-180E8903ADAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318111C2-DF06-478E-86EF-821C34B19D3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19560" yWindow="-12900" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Catégorie</t>
   </si>
@@ -54,28 +54,7 @@
     <t>(SEO ou accessiblité ?)</t>
   </si>
   <si>
-    <t>Hébergement et nom domaine.</t>
-  </si>
-  <si>
-    <t>Vittesse affichage</t>
-  </si>
-  <si>
-    <t>Langue déclarée</t>
-  </si>
-  <si>
-    <t>Balise alt sur images</t>
-  </si>
-  <si>
-    <t>Méta titres et descriptions</t>
-  </si>
-  <si>
-    <t>Balises keywords vides</t>
-  </si>
-  <si>
-    <t>Liens externes</t>
-  </si>
-  <si>
-    <t>Redirection page 404</t>
+    <t>L1 MODIF DE LA LANGUE</t>
   </si>
 </sst>
 </file>
@@ -373,7 +352,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -434,45 +413,24 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
